--- a/Messungen/speedtest_Auswertung2.xlsx
+++ b/Messungen/speedtest_Auswertung2.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="speedtest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1062,11 +1062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="8853696"/>
-        <c:axId val="8853120"/>
+        <c:axId val="579655296"/>
+        <c:axId val="579655872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8853696"/>
+        <c:axId val="579655296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,12 +1076,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8853120"/>
+        <c:crossAx val="579655872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8853120"/>
+        <c:axId val="579655872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8853696"/>
+        <c:crossAx val="579655296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1154,28 +1154,13 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-5.9554082055532594E-2"/>
                   <c:y val="-8.2723685797481007E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11017695814338997"/>
-                  <c:y val="9.6046451523975257E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1365,11 +1350,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124852416"/>
-        <c:axId val="124851840"/>
+        <c:axId val="603013120"/>
+        <c:axId val="603013696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124852416"/>
+        <c:axId val="603013120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,12 +1364,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124851840"/>
+        <c:crossAx val="603013696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124851840"/>
+        <c:axId val="603013696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124852416"/>
+        <c:crossAx val="603013120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1457,7 +1442,7 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -1466,16 +1451,6 @@
                   <c:y val="2.962129733783277E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1663,11 +1638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123514240"/>
-        <c:axId val="123513664"/>
+        <c:axId val="603015424"/>
+        <c:axId val="603016000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123514240"/>
+        <c:axId val="603015424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,12 +1652,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123513664"/>
+        <c:crossAx val="603016000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123513664"/>
+        <c:axId val="603016000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,7 +1668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123514240"/>
+        <c:crossAx val="603015424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1729,17 +1704,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.3031141377598077E-2"/>
+          <c:x val="0.12590384738493055"/>
           <c:y val="3.3117135525844506E-2"/>
-          <c:w val="0.62104986876640422"/>
-          <c:h val="0.89215757426294873"/>
+          <c:w val="0.83269940037983059"/>
+          <c:h val="0.8415316915172838"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1748,30 +1723,23 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Messwerte</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6352947435624604E-2"/>
-                  <c:y val="-4.7373272971751014E-2"/>
+                  <c:x val="-0.27626571068860295"/>
+                  <c:y val="0.22115262187971185"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1961,46 +1929,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123517696"/>
-        <c:axId val="123516544"/>
+        <c:axId val="603017728"/>
+        <c:axId val="603018304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123517696"/>
+        <c:axId val="603017728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Zeit in Sekunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42639984636066836"/>
+              <c:y val="0.92585916122186851"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123516544"/>
+        <c:crossAx val="603018304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123516544"/>
+        <c:axId val="603018304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Strecke in Millimeter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123517696"/>
+        <c:crossAx val="603017728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2107,16 +2115,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2427,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:F158"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:XFD157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5152,7 +5160,7 @@
         <v>5.70337772369E-2</v>
       </c>
       <c r="F132">
-        <f t="shared" ref="F131:F158" si="2">SQRT((A132-C132)^2+(B132-D132)^2)</f>
+        <f t="shared" ref="F132:F158" si="2">SQRT((A132-C132)^2+(B132-D132)^2)</f>
         <v>0</v>
       </c>
     </row>
